--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Penk-Ogfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Penk-Ogfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Penk</t>
   </si>
   <si>
     <t>Ogfr</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>12.8694645625052</v>
+        <v>0.2516393333333333</v>
       </c>
       <c r="H2">
-        <v>12.8694645625052</v>
+        <v>0.754918</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01813138366082569</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0181313836608257</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.63149609310255</v>
+        <v>6.499408666666668</v>
       </c>
       <c r="N2">
-        <v>4.63149609310255</v>
+        <v>19.498226</v>
       </c>
       <c r="O2">
-        <v>0.06765519766356952</v>
+        <v>0.08764491055841209</v>
       </c>
       <c r="P2">
-        <v>0.06765519766356952</v>
+        <v>0.08764491055841209</v>
       </c>
       <c r="Q2">
-        <v>59.60487484156455</v>
+        <v>1.635506863940889</v>
       </c>
       <c r="R2">
-        <v>59.60487484156455</v>
+        <v>14.719561775468</v>
       </c>
       <c r="S2">
-        <v>0.06765519766356952</v>
+        <v>0.001589123499253322</v>
       </c>
       <c r="T2">
-        <v>0.06765519766356952</v>
+        <v>0.001589123499253323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>12.8694645625052</v>
+        <v>0.2516393333333333</v>
       </c>
       <c r="H3">
-        <v>12.8694645625052</v>
+        <v>0.754918</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01813138366082569</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0181313836608257</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.7230951087092</v>
+        <v>10.92986433333333</v>
       </c>
       <c r="N3">
-        <v>10.7230951087092</v>
+        <v>32.789593</v>
       </c>
       <c r="O3">
-        <v>0.1566390437477398</v>
+        <v>0.1473898674541845</v>
       </c>
       <c r="P3">
-        <v>0.1566390437477398</v>
+        <v>0.1473898674541845</v>
       </c>
       <c r="Q3">
-        <v>138.0004925019059</v>
+        <v>2.750383774263777</v>
       </c>
       <c r="R3">
-        <v>138.0004925019059</v>
+        <v>24.753453968374</v>
       </c>
       <c r="S3">
-        <v>0.1566390437477398</v>
+        <v>0.002672382234530066</v>
       </c>
       <c r="T3">
-        <v>0.1566390437477398</v>
+        <v>0.002672382234530066</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>12.8694645625052</v>
+        <v>0.2516393333333333</v>
       </c>
       <c r="H4">
-        <v>12.8694645625052</v>
+        <v>0.754918</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01813138366082569</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.0181313836608257</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.6696685428737</v>
+        <v>18.813894</v>
       </c>
       <c r="N4">
-        <v>16.6696685428737</v>
+        <v>56.441682</v>
       </c>
       <c r="O4">
-        <v>0.2435044092844787</v>
+        <v>0.2537064741508452</v>
       </c>
       <c r="P4">
-        <v>0.2435044092844787</v>
+        <v>0.2537064741508451</v>
       </c>
       <c r="Q4">
-        <v>214.5297085812208</v>
+        <v>4.734315743564</v>
       </c>
       <c r="R4">
-        <v>214.5297085812208</v>
+        <v>42.608841692076</v>
       </c>
       <c r="S4">
-        <v>0.2435044092844787</v>
+        <v>0.004600049420064331</v>
       </c>
       <c r="T4">
-        <v>0.2435044092844787</v>
+        <v>0.004600049420064331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>12.8694645625052</v>
+        <v>0.2516393333333333</v>
       </c>
       <c r="H5">
-        <v>12.8694645625052</v>
+        <v>0.754918</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01813138366082569</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.0181313836608257</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.4295980680735</v>
+        <v>18.48462166666667</v>
       </c>
       <c r="N5">
-        <v>17.4295980680735</v>
+        <v>55.453865</v>
       </c>
       <c r="O5">
-        <v>0.2546051813037711</v>
+        <v>0.2492662172468028</v>
       </c>
       <c r="P5">
-        <v>0.2546051813037711</v>
+        <v>0.2492662172468028</v>
       </c>
       <c r="Q5">
-        <v>224.309594675781</v>
+        <v>4.651457873118889</v>
       </c>
       <c r="R5">
-        <v>224.309594675781</v>
+        <v>41.86312085807</v>
       </c>
       <c r="S5">
-        <v>0.2546051813037711</v>
+        <v>0.004519541418584508</v>
       </c>
       <c r="T5">
-        <v>0.2546051813037711</v>
+        <v>0.004519541418584508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>12.8694645625052</v>
+        <v>0.2516393333333333</v>
       </c>
       <c r="H6">
-        <v>12.8694645625052</v>
+        <v>0.754918</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.01813138366082569</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.0181313836608257</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.368032714836</v>
+        <v>14.370358</v>
       </c>
       <c r="N6">
-        <v>14.368032714836</v>
+        <v>43.111074</v>
       </c>
       <c r="O6">
-        <v>0.209882956569157</v>
+        <v>0.1937851281858711</v>
       </c>
       <c r="P6">
-        <v>0.209882956569157</v>
+        <v>0.1937851281858711</v>
       </c>
       <c r="Q6">
-        <v>184.9088878564973</v>
+        <v>3.616147306881333</v>
       </c>
       <c r="R6">
-        <v>184.9088878564973</v>
+        <v>32.545325761932</v>
       </c>
       <c r="S6">
-        <v>0.209882956569157</v>
+        <v>0.003513592506900316</v>
       </c>
       <c r="T6">
-        <v>0.209882956569157</v>
+        <v>0.003513592506900316</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1177 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>12.8694645625052</v>
+        <v>0.2516393333333333</v>
       </c>
       <c r="H7">
-        <v>12.8694645625052</v>
+        <v>0.754918</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.01813138366082569</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.0181313836608257</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.63546756237312</v>
+        <v>5.057998</v>
       </c>
       <c r="N7">
-        <v>4.63546756237312</v>
+        <v>15.173994</v>
       </c>
       <c r="O7">
-        <v>0.06771321143128388</v>
+        <v>0.06820740240388441</v>
       </c>
       <c r="P7">
-        <v>0.06771321143128388</v>
+        <v>0.06820740240388441</v>
       </c>
       <c r="Q7">
-        <v>59.65598552460323</v>
+        <v>1.272791244721333</v>
       </c>
       <c r="R7">
-        <v>59.65598552460323</v>
+        <v>11.455121202492</v>
       </c>
       <c r="S7">
-        <v>0.06771321143128388</v>
+        <v>0.001236694581493153</v>
       </c>
       <c r="T7">
-        <v>0.06771321143128388</v>
+        <v>0.001236694581493153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>13.14903766666666</v>
+      </c>
+      <c r="H8">
+        <v>39.44711299999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9474283831024625</v>
+      </c>
+      <c r="J8">
+        <v>0.9474283831024627</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.499408666666668</v>
+      </c>
+      <c r="N8">
+        <v>19.498226</v>
+      </c>
+      <c r="O8">
+        <v>0.08764491055841209</v>
+      </c>
+      <c r="P8">
+        <v>0.08764491055841209</v>
+      </c>
+      <c r="Q8">
+        <v>85.46096936905978</v>
+      </c>
+      <c r="R8">
+        <v>769.148724321538</v>
+      </c>
+      <c r="S8">
+        <v>0.08303727589751631</v>
+      </c>
+      <c r="T8">
+        <v>0.08303727589751632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>13.14903766666666</v>
+      </c>
+      <c r="H9">
+        <v>39.44711299999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9474283831024625</v>
+      </c>
+      <c r="J9">
+        <v>0.9474283831024627</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10.92986433333333</v>
+      </c>
+      <c r="N9">
+        <v>32.789593</v>
+      </c>
+      <c r="O9">
+        <v>0.1473898674541845</v>
+      </c>
+      <c r="P9">
+        <v>0.1473898674541845</v>
+      </c>
+      <c r="Q9">
+        <v>143.7171978105565</v>
+      </c>
+      <c r="R9">
+        <v>1293.454780295009</v>
+      </c>
+      <c r="S9">
+        <v>0.1396413438078043</v>
+      </c>
+      <c r="T9">
+        <v>0.1396413438078043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>13.14903766666666</v>
+      </c>
+      <c r="H10">
+        <v>39.44711299999999</v>
+      </c>
+      <c r="I10">
+        <v>0.9474283831024625</v>
+      </c>
+      <c r="J10">
+        <v>0.9474283831024627</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>18.813894</v>
+      </c>
+      <c r="N10">
+        <v>56.441682</v>
+      </c>
+      <c r="O10">
+        <v>0.2537064741508452</v>
+      </c>
+      <c r="P10">
+        <v>0.2537064741508451</v>
+      </c>
+      <c r="Q10">
+        <v>247.384600862674</v>
+      </c>
+      <c r="R10">
+        <v>2226.461407764066</v>
+      </c>
+      <c r="S10">
+        <v>0.2403687145873619</v>
+      </c>
+      <c r="T10">
+        <v>0.2403687145873619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13.14903766666666</v>
+      </c>
+      <c r="H11">
+        <v>39.44711299999999</v>
+      </c>
+      <c r="I11">
+        <v>0.9474283831024625</v>
+      </c>
+      <c r="J11">
+        <v>0.9474283831024627</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>18.48462166666667</v>
+      </c>
+      <c r="N11">
+        <v>55.453865</v>
+      </c>
+      <c r="O11">
+        <v>0.2492662172468028</v>
+      </c>
+      <c r="P11">
+        <v>0.2492662172468028</v>
+      </c>
+      <c r="Q11">
+        <v>243.0549865490827</v>
+      </c>
+      <c r="R11">
+        <v>2187.494878941745</v>
+      </c>
+      <c r="S11">
+        <v>0.2361618891682055</v>
+      </c>
+      <c r="T11">
+        <v>0.2361618891682055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>13.14903766666666</v>
+      </c>
+      <c r="H12">
+        <v>39.44711299999999</v>
+      </c>
+      <c r="I12">
+        <v>0.9474283831024625</v>
+      </c>
+      <c r="J12">
+        <v>0.9474283831024627</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>14.370358</v>
+      </c>
+      <c r="N12">
+        <v>43.111074</v>
+      </c>
+      <c r="O12">
+        <v>0.1937851281858711</v>
+      </c>
+      <c r="P12">
+        <v>0.1937851281858711</v>
+      </c>
+      <c r="Q12">
+        <v>188.9563786254847</v>
+      </c>
+      <c r="R12">
+        <v>1700.607407629362</v>
+      </c>
+      <c r="S12">
+        <v>0.1835975306664433</v>
+      </c>
+      <c r="T12">
+        <v>0.1835975306664433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.14903766666666</v>
+      </c>
+      <c r="H13">
+        <v>39.44711299999999</v>
+      </c>
+      <c r="I13">
+        <v>0.9474283831024625</v>
+      </c>
+      <c r="J13">
+        <v>0.9474283831024627</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.057998</v>
+      </c>
+      <c r="N13">
+        <v>15.173994</v>
+      </c>
+      <c r="O13">
+        <v>0.06820740240388441</v>
+      </c>
+      <c r="P13">
+        <v>0.06820740240388441</v>
+      </c>
+      <c r="Q13">
+        <v>66.50780621992466</v>
+      </c>
+      <c r="R13">
+        <v>598.5702559793219</v>
+      </c>
+      <c r="S13">
+        <v>0.06462162897513123</v>
+      </c>
+      <c r="T13">
+        <v>0.06462162897513124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4242103333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.272631</v>
+      </c>
+      <c r="I14">
+        <v>0.03056565205712444</v>
+      </c>
+      <c r="J14">
+        <v>0.03056565205712445</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.499408666666668</v>
+      </c>
+      <c r="N14">
+        <v>19.498226</v>
+      </c>
+      <c r="O14">
+        <v>0.08764491055841209</v>
+      </c>
+      <c r="P14">
+        <v>0.08764491055841209</v>
+      </c>
+      <c r="Q14">
+        <v>2.757116316956223</v>
+      </c>
+      <c r="R14">
+        <v>24.814046852606</v>
+      </c>
+      <c r="S14">
+        <v>0.002678923840706216</v>
+      </c>
+      <c r="T14">
+        <v>0.002678923840706217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.4242103333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.272631</v>
+      </c>
+      <c r="I15">
+        <v>0.03056565205712444</v>
+      </c>
+      <c r="J15">
+        <v>0.03056565205712445</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.92986433333333</v>
+      </c>
+      <c r="N15">
+        <v>32.789593</v>
+      </c>
+      <c r="O15">
+        <v>0.1473898674541845</v>
+      </c>
+      <c r="P15">
+        <v>0.1473898674541845</v>
+      </c>
+      <c r="Q15">
+        <v>4.636561392131444</v>
+      </c>
+      <c r="R15">
+        <v>41.729052529183</v>
+      </c>
+      <c r="S15">
+        <v>0.004505067405350294</v>
+      </c>
+      <c r="T15">
+        <v>0.004505067405350294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4242103333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.272631</v>
+      </c>
+      <c r="I16">
+        <v>0.03056565205712444</v>
+      </c>
+      <c r="J16">
+        <v>0.03056565205712445</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.813894</v>
+      </c>
+      <c r="N16">
+        <v>56.441682</v>
+      </c>
+      <c r="O16">
+        <v>0.2537064741508452</v>
+      </c>
+      <c r="P16">
+        <v>0.2537064741508451</v>
+      </c>
+      <c r="Q16">
+        <v>7.981048245038001</v>
+      </c>
+      <c r="R16">
+        <v>71.82943420534201</v>
+      </c>
+      <c r="S16">
+        <v>0.00775470381353457</v>
+      </c>
+      <c r="T16">
+        <v>0.00775470381353457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.4242103333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.272631</v>
+      </c>
+      <c r="I17">
+        <v>0.03056565205712444</v>
+      </c>
+      <c r="J17">
+        <v>0.03056565205712445</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.48462166666667</v>
+      </c>
+      <c r="N17">
+        <v>55.453865</v>
+      </c>
+      <c r="O17">
+        <v>0.2492662172468028</v>
+      </c>
+      <c r="P17">
+        <v>0.2492662172468028</v>
+      </c>
+      <c r="Q17">
+        <v>7.841367518757222</v>
+      </c>
+      <c r="R17">
+        <v>70.572307668815</v>
+      </c>
+      <c r="S17">
+        <v>0.007618984465961364</v>
+      </c>
+      <c r="T17">
+        <v>0.007618984465961365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.4242103333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.272631</v>
+      </c>
+      <c r="I18">
+        <v>0.03056565205712444</v>
+      </c>
+      <c r="J18">
+        <v>0.03056565205712445</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>14.370358</v>
+      </c>
+      <c r="N18">
+        <v>43.111074</v>
+      </c>
+      <c r="O18">
+        <v>0.1937851281858711</v>
+      </c>
+      <c r="P18">
+        <v>0.1937851281858711</v>
+      </c>
+      <c r="Q18">
+        <v>6.096054357299335</v>
+      </c>
+      <c r="R18">
+        <v>54.86448921569401</v>
+      </c>
+      <c r="S18">
+        <v>0.005923168801974594</v>
+      </c>
+      <c r="T18">
+        <v>0.005923168801974596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.4242103333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.272631</v>
+      </c>
+      <c r="I19">
+        <v>0.03056565205712444</v>
+      </c>
+      <c r="J19">
+        <v>0.03056565205712445</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.057998</v>
+      </c>
+      <c r="N19">
+        <v>15.173994</v>
+      </c>
+      <c r="O19">
+        <v>0.06820740240388441</v>
+      </c>
+      <c r="P19">
+        <v>0.06820740240388441</v>
+      </c>
+      <c r="Q19">
+        <v>2.145655017579334</v>
+      </c>
+      <c r="R19">
+        <v>19.310895158214</v>
+      </c>
+      <c r="S19">
+        <v>0.002084803729597404</v>
+      </c>
+      <c r="T19">
+        <v>0.002084803729597404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.053774</v>
+      </c>
+      <c r="H20">
+        <v>0.161322</v>
+      </c>
+      <c r="I20">
+        <v>0.00387458117958735</v>
+      </c>
+      <c r="J20">
+        <v>0.00387458117958735</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.499408666666668</v>
+      </c>
+      <c r="N20">
+        <v>19.498226</v>
+      </c>
+      <c r="O20">
+        <v>0.08764491055841209</v>
+      </c>
+      <c r="P20">
+        <v>0.08764491055841209</v>
+      </c>
+      <c r="Q20">
+        <v>0.3494992016413334</v>
+      </c>
+      <c r="R20">
+        <v>3.145492814772</v>
+      </c>
+      <c r="S20">
+        <v>0.0003395873209362401</v>
+      </c>
+      <c r="T20">
+        <v>0.0003395873209362401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.053774</v>
+      </c>
+      <c r="H21">
+        <v>0.161322</v>
+      </c>
+      <c r="I21">
+        <v>0.00387458117958735</v>
+      </c>
+      <c r="J21">
+        <v>0.00387458117958735</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.92986433333333</v>
+      </c>
+      <c r="N21">
+        <v>32.789593</v>
+      </c>
+      <c r="O21">
+        <v>0.1473898674541845</v>
+      </c>
+      <c r="P21">
+        <v>0.1473898674541845</v>
+      </c>
+      <c r="Q21">
+        <v>0.5877425246606666</v>
+      </c>
+      <c r="R21">
+        <v>5.289682721945999</v>
+      </c>
+      <c r="S21">
+        <v>0.0005710740064998574</v>
+      </c>
+      <c r="T21">
+        <v>0.0005710740064998574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.053774</v>
+      </c>
+      <c r="H22">
+        <v>0.161322</v>
+      </c>
+      <c r="I22">
+        <v>0.00387458117958735</v>
+      </c>
+      <c r="J22">
+        <v>0.00387458117958735</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>18.813894</v>
+      </c>
+      <c r="N22">
+        <v>56.441682</v>
+      </c>
+      <c r="O22">
+        <v>0.2537064741508452</v>
+      </c>
+      <c r="P22">
+        <v>0.2537064741508451</v>
+      </c>
+      <c r="Q22">
+        <v>1.011698335956</v>
+      </c>
+      <c r="R22">
+        <v>9.105285023603999</v>
+      </c>
+      <c r="S22">
+        <v>0.0009830063298843291</v>
+      </c>
+      <c r="T22">
+        <v>0.0009830063298843291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.053774</v>
+      </c>
+      <c r="H23">
+        <v>0.161322</v>
+      </c>
+      <c r="I23">
+        <v>0.00387458117958735</v>
+      </c>
+      <c r="J23">
+        <v>0.00387458117958735</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>18.48462166666667</v>
+      </c>
+      <c r="N23">
+        <v>55.453865</v>
+      </c>
+      <c r="O23">
+        <v>0.2492662172468028</v>
+      </c>
+      <c r="P23">
+        <v>0.2492662172468028</v>
+      </c>
+      <c r="Q23">
+        <v>0.9939920455033332</v>
+      </c>
+      <c r="R23">
+        <v>8.94592840953</v>
+      </c>
+      <c r="S23">
+        <v>0.0009658021940513935</v>
+      </c>
+      <c r="T23">
+        <v>0.0009658021940513937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.053774</v>
+      </c>
+      <c r="H24">
+        <v>0.161322</v>
+      </c>
+      <c r="I24">
+        <v>0.00387458117958735</v>
+      </c>
+      <c r="J24">
+        <v>0.00387458117958735</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>14.370358</v>
+      </c>
+      <c r="N24">
+        <v>43.111074</v>
+      </c>
+      <c r="O24">
+        <v>0.1937851281858711</v>
+      </c>
+      <c r="P24">
+        <v>0.1937851281858711</v>
+      </c>
+      <c r="Q24">
+        <v>0.772751631092</v>
+      </c>
+      <c r="R24">
+        <v>6.954764679828</v>
+      </c>
+      <c r="S24">
+        <v>0.0007508362105528982</v>
+      </c>
+      <c r="T24">
+        <v>0.0007508362105528983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.053774</v>
+      </c>
+      <c r="H25">
+        <v>0.161322</v>
+      </c>
+      <c r="I25">
+        <v>0.00387458117958735</v>
+      </c>
+      <c r="J25">
+        <v>0.00387458117958735</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.057998</v>
+      </c>
+      <c r="N25">
+        <v>15.173994</v>
+      </c>
+      <c r="O25">
+        <v>0.06820740240388441</v>
+      </c>
+      <c r="P25">
+        <v>0.06820740240388441</v>
+      </c>
+      <c r="Q25">
+        <v>0.271988784452</v>
+      </c>
+      <c r="R25">
+        <v>2.447899060068</v>
+      </c>
+      <c r="S25">
+        <v>0.0002642751176626315</v>
+      </c>
+      <c r="T25">
+        <v>0.0002642751176626316</v>
       </c>
     </row>
   </sheetData>
